--- a/data/gr17_d.xlsx
+++ b/data/gr17_d.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B188"/>
+  <dimension ref="A1:B204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -380,7 +380,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4894</v>
+        <v>5177</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -388,7 +388,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4623</v>
+        <v>4422</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -396,7 +396,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4906</v>
+        <v>4083</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -404,103 +404,103 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4191</v>
+        <v>4415</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4887</v>
+        <v>4686</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4834</v>
+        <v>4701</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4354</v>
+        <v>4420</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4347</v>
+        <v>4235</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4455</v>
+        <v>3636</v>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3957</v>
+        <v>4606</v>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4287</v>
+        <v>4243</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4417</v>
+        <v>4266</v>
       </c>
       <c r="B13" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4025</v>
+        <v>4008</v>
       </c>
       <c r="B14" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4239</v>
+        <v>4007</v>
       </c>
       <c r="B15" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4036</v>
+        <v>3636</v>
       </c>
       <c r="B16" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4297</v>
+        <v>4132</v>
       </c>
       <c r="B17" t="n">
         <v>35</v>
@@ -508,1370 +508,1498 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4283</v>
+        <v>4172</v>
       </c>
       <c r="B18" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4163</v>
+        <v>4155</v>
       </c>
       <c r="B19" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3933</v>
+        <v>3305</v>
       </c>
       <c r="B20" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4005</v>
+        <v>3906</v>
       </c>
       <c r="B21" t="n">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4062</v>
+        <v>3887</v>
       </c>
       <c r="B22" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4131</v>
+        <v>3974</v>
       </c>
       <c r="B23" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3691</v>
+        <v>4006</v>
       </c>
       <c r="B24" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3815</v>
+        <v>3794</v>
       </c>
       <c r="B25" t="n">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3922</v>
+        <v>3770</v>
       </c>
       <c r="B26" t="n">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3671</v>
+        <v>3535</v>
       </c>
       <c r="B27" t="n">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3936</v>
+        <v>3799</v>
       </c>
       <c r="B28" t="n">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3917</v>
+        <v>3853</v>
       </c>
       <c r="B29" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3630</v>
+        <v>3838</v>
       </c>
       <c r="B30" t="n">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3677</v>
+        <v>3692</v>
       </c>
       <c r="B31" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3856</v>
+        <v>3374</v>
       </c>
       <c r="B32" t="n">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3529</v>
+        <v>3621</v>
       </c>
       <c r="B33" t="n">
-        <v>119</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3522</v>
+        <v>3428</v>
       </c>
       <c r="B34" t="n">
-        <v>121</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3782</v>
+        <v>3508</v>
       </c>
       <c r="B35" t="n">
-        <v>129</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3738</v>
+        <v>3585</v>
       </c>
       <c r="B36" t="n">
-        <v>130</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3760</v>
+        <v>3635</v>
       </c>
       <c r="B37" t="n">
-        <v>138</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3566</v>
+        <v>3515</v>
       </c>
       <c r="B38" t="n">
-        <v>152</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3752</v>
+        <v>3587</v>
       </c>
       <c r="B39" t="n">
-        <v>158</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3441</v>
+        <v>3340</v>
       </c>
       <c r="B40" t="n">
-        <v>162</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3585</v>
+        <v>3518</v>
       </c>
       <c r="B41" t="n">
-        <v>165</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3536</v>
+        <v>3395</v>
       </c>
       <c r="B42" t="n">
-        <v>167</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3671</v>
+        <v>3528</v>
       </c>
       <c r="B43" t="n">
-        <v>174</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3221</v>
+        <v>3359</v>
       </c>
       <c r="B44" t="n">
-        <v>177</v>
+        <v>359</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3641</v>
+        <v>3409</v>
       </c>
       <c r="B45" t="n">
-        <v>178</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3463</v>
+        <v>3488</v>
       </c>
       <c r="B46" t="n">
-        <v>182</v>
+        <v>393</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3513</v>
+        <v>3230</v>
       </c>
       <c r="B47" t="n">
-        <v>188</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3512</v>
+        <v>2920</v>
       </c>
       <c r="B48" t="n">
-        <v>199</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3516</v>
+        <v>3113</v>
       </c>
       <c r="B49" t="n">
-        <v>205</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3545</v>
+        <v>3347</v>
       </c>
       <c r="B50" t="n">
-        <v>207</v>
+        <v>413</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3244</v>
+        <v>3373</v>
       </c>
       <c r="B51" t="n">
-        <v>219</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3261</v>
+        <v>3251</v>
       </c>
       <c r="B52" t="n">
-        <v>228</v>
+        <v>419</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3453</v>
+        <v>2913</v>
       </c>
       <c r="B53" t="n">
-        <v>230</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3348</v>
+        <v>3106</v>
       </c>
       <c r="B54" t="n">
-        <v>231</v>
+        <v>424</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3180</v>
+        <v>2921</v>
       </c>
       <c r="B55" t="n">
-        <v>249</v>
+        <v>426</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3266</v>
+        <v>3252</v>
       </c>
       <c r="B56" t="n">
-        <v>261</v>
+        <v>429</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3464</v>
+        <v>2928</v>
       </c>
       <c r="B57" t="n">
-        <v>267</v>
+        <v>470</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3290</v>
+        <v>3061</v>
       </c>
       <c r="B58" t="n">
-        <v>275</v>
+        <v>564</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3100</v>
+        <v>2965</v>
       </c>
       <c r="B59" t="n">
-        <v>281</v>
+        <v>572</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3327</v>
+        <v>3094</v>
       </c>
       <c r="B60" t="n">
-        <v>299</v>
+        <v>631</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2982</v>
+        <v>3149</v>
       </c>
       <c r="B61" t="n">
-        <v>313</v>
+        <v>693</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3047</v>
+        <v>2976</v>
       </c>
       <c r="B62" t="n">
-        <v>316</v>
+        <v>701</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3324</v>
+        <v>3103</v>
       </c>
       <c r="B63" t="n">
-        <v>340</v>
+        <v>743</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3079</v>
+        <v>3038</v>
       </c>
       <c r="B64" t="n">
-        <v>353</v>
+        <v>814</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2702</v>
+        <v>2799</v>
       </c>
       <c r="B65" t="n">
-        <v>362</v>
+        <v>843</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3023</v>
+        <v>2982</v>
       </c>
       <c r="B66" t="n">
-        <v>366</v>
+        <v>863</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3244</v>
+        <v>2988</v>
       </c>
       <c r="B67" t="n">
-        <v>370</v>
+        <v>866</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2774</v>
+        <v>3035</v>
       </c>
       <c r="B68" t="n">
-        <v>373</v>
+        <v>873</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3229</v>
+        <v>2999</v>
       </c>
       <c r="B69" t="n">
-        <v>374</v>
+        <v>878</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>3008</v>
+        <v>2844</v>
       </c>
       <c r="B70" t="n">
-        <v>383</v>
+        <v>904</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>3169</v>
+        <v>2982</v>
       </c>
       <c r="B71" t="n">
-        <v>386</v>
+        <v>911</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>3078</v>
+        <v>2929</v>
       </c>
       <c r="B72" t="n">
-        <v>401</v>
+        <v>924</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>3053</v>
+        <v>2980</v>
       </c>
       <c r="B73" t="n">
-        <v>410</v>
+        <v>987</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>3054</v>
+        <v>2936</v>
       </c>
       <c r="B74" t="n">
-        <v>422</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>3058</v>
+        <v>2973</v>
       </c>
       <c r="B75" t="n">
-        <v>451</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2956</v>
+        <v>2964</v>
       </c>
       <c r="B76" t="n">
-        <v>516</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2971</v>
+        <v>2612</v>
       </c>
       <c r="B77" t="n">
-        <v>562</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2932</v>
+        <v>2766</v>
       </c>
       <c r="B78" t="n">
-        <v>606</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>3052</v>
+        <v>2883</v>
       </c>
       <c r="B79" t="n">
-        <v>614</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2741</v>
+        <v>2710</v>
       </c>
       <c r="B80" t="n">
-        <v>676</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2948</v>
+        <v>2723</v>
       </c>
       <c r="B81" t="n">
-        <v>679</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2988</v>
+        <v>2870</v>
       </c>
       <c r="B82" t="n">
-        <v>716</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2955</v>
+        <v>2451</v>
       </c>
       <c r="B83" t="n">
-        <v>866</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B84" t="n">
-        <v>876</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2845</v>
+        <v>2794</v>
       </c>
       <c r="B85" t="n">
-        <v>884</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2902</v>
+        <v>2881</v>
       </c>
       <c r="B86" t="n">
-        <v>893</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2859</v>
+        <v>2766</v>
       </c>
       <c r="B87" t="n">
-        <v>895</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2857</v>
+        <v>2731</v>
       </c>
       <c r="B88" t="n">
-        <v>961</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2874</v>
+        <v>2651</v>
       </c>
       <c r="B89" t="n">
-        <v>1151</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2849</v>
+        <v>2674</v>
       </c>
       <c r="B90" t="n">
-        <v>1170</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2844</v>
+        <v>2787</v>
       </c>
       <c r="B91" t="n">
-        <v>1758</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2831</v>
+        <v>2768</v>
       </c>
       <c r="B92" t="n">
-        <v>1916</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2801</v>
+        <v>2728</v>
       </c>
       <c r="B93" t="n">
-        <v>1923</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2783</v>
+        <v>2686</v>
       </c>
       <c r="B94" t="n">
-        <v>2117</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2791</v>
+        <v>2675</v>
       </c>
       <c r="B95" t="n">
-        <v>2397</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2814</v>
+        <v>2600</v>
       </c>
       <c r="B96" t="n">
-        <v>2529</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2831</v>
+        <v>2598</v>
       </c>
       <c r="B97" t="n">
-        <v>2664</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2753</v>
+        <v>2696</v>
       </c>
       <c r="B98" t="n">
-        <v>2925</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2758</v>
+        <v>2674</v>
       </c>
       <c r="B99" t="n">
-        <v>3302</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2831</v>
+        <v>2602</v>
       </c>
       <c r="B100" t="n">
-        <v>3427</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2704</v>
+        <v>2658</v>
       </c>
       <c r="B101" t="n">
-        <v>3571</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2768</v>
+        <v>2502</v>
       </c>
       <c r="B102" t="n">
-        <v>3597</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2762</v>
+        <v>2603</v>
       </c>
       <c r="B103" t="n">
-        <v>3688</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2776</v>
+        <v>2619</v>
       </c>
       <c r="B104" t="n">
-        <v>3767</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2724</v>
+        <v>2558</v>
       </c>
       <c r="B105" t="n">
-        <v>3897</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2773</v>
+        <v>2456</v>
       </c>
       <c r="B106" t="n">
-        <v>4153</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2753</v>
+        <v>2604</v>
       </c>
       <c r="B107" t="n">
-        <v>4412</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2771</v>
+        <v>2600</v>
       </c>
       <c r="B108" t="n">
-        <v>4574</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2735</v>
+        <v>2579</v>
       </c>
       <c r="B109" t="n">
-        <v>4648</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2611</v>
+        <v>2464</v>
       </c>
       <c r="B110" t="n">
-        <v>4656</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2686</v>
+        <v>2577</v>
       </c>
       <c r="B111" t="n">
-        <v>4873</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2709</v>
+        <v>2559</v>
       </c>
       <c r="B112" t="n">
-        <v>4895</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2736</v>
+        <v>2587</v>
       </c>
       <c r="B113" t="n">
-        <v>5124</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2727</v>
+        <v>2533</v>
       </c>
       <c r="B114" t="n">
-        <v>5305</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2703</v>
+        <v>2492</v>
       </c>
       <c r="B115" t="n">
-        <v>5358</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2663</v>
+        <v>2486</v>
       </c>
       <c r="B116" t="n">
-        <v>5752</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2575</v>
+        <v>2365</v>
       </c>
       <c r="B117" t="n">
-        <v>6206</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2713</v>
+        <v>2493</v>
       </c>
       <c r="B118" t="n">
-        <v>6767</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2714</v>
+        <v>2513</v>
       </c>
       <c r="B119" t="n">
-        <v>7041</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2549</v>
+        <v>2385</v>
       </c>
       <c r="B120" t="n">
-        <v>7269</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2690</v>
+        <v>2283</v>
       </c>
       <c r="B121" t="n">
-        <v>7481</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2680</v>
+        <v>2472</v>
       </c>
       <c r="B122" t="n">
-        <v>7509</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2640</v>
+        <v>2493</v>
       </c>
       <c r="B123" t="n">
-        <v>7937</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2648</v>
+        <v>2458</v>
       </c>
       <c r="B124" t="n">
-        <v>8100</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2583</v>
+        <v>2487</v>
       </c>
       <c r="B125" t="n">
-        <v>8277</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2673</v>
+        <v>2486</v>
       </c>
       <c r="B126" t="n">
-        <v>8479</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2674</v>
+        <v>2413</v>
       </c>
       <c r="B127" t="n">
-        <v>8487</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2680</v>
+        <v>2461</v>
       </c>
       <c r="B128" t="n">
-        <v>8493</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2479</v>
+        <v>2410</v>
       </c>
       <c r="B129" t="n">
-        <v>8639</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2620</v>
+        <v>2331</v>
       </c>
       <c r="B130" t="n">
-        <v>8684</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2640</v>
+        <v>2345</v>
       </c>
       <c r="B131" t="n">
-        <v>8701</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2567</v>
+        <v>2449</v>
       </c>
       <c r="B132" t="n">
-        <v>8857</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2597</v>
+        <v>2325</v>
       </c>
       <c r="B133" t="n">
-        <v>8917</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2591</v>
+        <v>2364</v>
       </c>
       <c r="B134" t="n">
-        <v>8991</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2601</v>
+        <v>2327</v>
       </c>
       <c r="B135" t="n">
-        <v>9029</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2593</v>
+        <v>2364</v>
       </c>
       <c r="B136" t="n">
-        <v>9114</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2603</v>
+        <v>2374</v>
       </c>
       <c r="B137" t="n">
-        <v>9356</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2599</v>
+        <v>2370</v>
       </c>
       <c r="B138" t="n">
-        <v>9438</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2589</v>
+        <v>2222</v>
       </c>
       <c r="B139" t="n">
-        <v>9509</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2566</v>
+        <v>2357</v>
       </c>
       <c r="B140" t="n">
-        <v>9540</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2544</v>
+        <v>2354</v>
       </c>
       <c r="B141" t="n">
-        <v>9627</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2560</v>
+        <v>2364</v>
       </c>
       <c r="B142" t="n">
-        <v>9789</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>2578</v>
+        <v>2352</v>
       </c>
       <c r="B143" t="n">
-        <v>9913</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2555</v>
+        <v>2349</v>
       </c>
       <c r="B144" t="n">
-        <v>9980</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2572</v>
+        <v>2318</v>
       </c>
       <c r="B145" t="n">
-        <v>10034</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2567</v>
+        <v>2339</v>
       </c>
       <c r="B146" t="n">
-        <v>10036</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2566</v>
+        <v>2278</v>
       </c>
       <c r="B147" t="n">
-        <v>10097</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2547</v>
+        <v>2285</v>
       </c>
       <c r="B148" t="n">
-        <v>10111</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2549</v>
+        <v>2297</v>
       </c>
       <c r="B149" t="n">
-        <v>10245</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2557</v>
+        <v>2322</v>
       </c>
       <c r="B150" t="n">
-        <v>10369</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>2558</v>
+        <v>2241</v>
       </c>
       <c r="B151" t="n">
-        <v>10589</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2503</v>
+        <v>2289</v>
       </c>
       <c r="B152" t="n">
-        <v>10675</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2498</v>
+        <v>2298</v>
       </c>
       <c r="B153" t="n">
-        <v>10686</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2548</v>
+        <v>2250</v>
       </c>
       <c r="B154" t="n">
-        <v>10905</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2494</v>
+        <v>2303</v>
       </c>
       <c r="B155" t="n">
-        <v>10907</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2503</v>
+        <v>2279</v>
       </c>
       <c r="B156" t="n">
-        <v>10927</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2548</v>
+        <v>2289</v>
       </c>
       <c r="B157" t="n">
-        <v>11047</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2539</v>
+        <v>2291</v>
       </c>
       <c r="B158" t="n">
-        <v>11176</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2537</v>
+        <v>2253</v>
       </c>
       <c r="B159" t="n">
-        <v>11283</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2475</v>
+        <v>2261</v>
       </c>
       <c r="B160" t="n">
-        <v>11291</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2470</v>
+        <v>2276</v>
       </c>
       <c r="B161" t="n">
-        <v>11418</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>2479</v>
+        <v>2262</v>
       </c>
       <c r="B162" t="n">
-        <v>11540</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>2528</v>
+        <v>2213</v>
       </c>
       <c r="B163" t="n">
-        <v>11559</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2537</v>
+        <v>2270</v>
       </c>
       <c r="B164" t="n">
-        <v>11599</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>2479</v>
+        <v>2277</v>
       </c>
       <c r="B165" t="n">
-        <v>11791</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>2479</v>
+        <v>2261</v>
       </c>
       <c r="B166" t="n">
-        <v>11928</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>2474</v>
+        <v>2217</v>
       </c>
       <c r="B167" t="n">
-        <v>12090</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2445</v>
+        <v>2208</v>
       </c>
       <c r="B168" t="n">
-        <v>12259</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2494</v>
+        <v>2205</v>
       </c>
       <c r="B169" t="n">
-        <v>12676</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2493</v>
+        <v>2252</v>
       </c>
       <c r="B170" t="n">
-        <v>13480</v>
+        <v>4789</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>2435</v>
+        <v>2261</v>
       </c>
       <c r="B171" t="n">
-        <v>13559</v>
+        <v>4795</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2432</v>
+        <v>2234</v>
       </c>
       <c r="B172" t="n">
-        <v>13863</v>
+        <v>4834</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>2469</v>
+        <v>2225</v>
       </c>
       <c r="B173" t="n">
-        <v>16047</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>2458</v>
+        <v>2237</v>
       </c>
       <c r="B174" t="n">
-        <v>18207</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>2406</v>
+        <v>2246</v>
       </c>
       <c r="B175" t="n">
-        <v>24064</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>2469</v>
+        <v>2196</v>
       </c>
       <c r="B176" t="n">
-        <v>25195</v>
+        <v>5418</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>2419</v>
+        <v>2141</v>
       </c>
       <c r="B177" t="n">
-        <v>25211</v>
+        <v>6147</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>2393</v>
+        <v>2132</v>
       </c>
       <c r="B178" t="n">
-        <v>25591</v>
+        <v>6245</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2457</v>
+        <v>2153</v>
       </c>
       <c r="B179" t="n">
-        <v>25592</v>
+        <v>6271</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2406</v>
+        <v>2144</v>
       </c>
       <c r="B180" t="n">
-        <v>26075</v>
+        <v>6299</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2434</v>
+        <v>2189</v>
       </c>
       <c r="B181" t="n">
-        <v>27106</v>
+        <v>6772</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2421</v>
+        <v>2190</v>
       </c>
       <c r="B182" t="n">
-        <v>28177</v>
+        <v>6932</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>2447</v>
+        <v>2197</v>
       </c>
       <c r="B183" t="n">
-        <v>28306</v>
+        <v>9015</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2434</v>
+        <v>2188</v>
       </c>
       <c r="B184" t="n">
-        <v>30047</v>
+        <v>9033</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2432</v>
+        <v>2142</v>
       </c>
       <c r="B185" t="n">
-        <v>30196</v>
+        <v>9119</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>2423</v>
+        <v>2186</v>
       </c>
       <c r="B186" t="n">
-        <v>30635</v>
+        <v>9207</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2424</v>
+        <v>2151</v>
       </c>
       <c r="B187" t="n">
-        <v>33490</v>
+        <v>9291</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>2423</v>
+        <v>2187</v>
       </c>
       <c r="B188" t="n">
-        <v>34604</v>
+        <v>9313</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>2178</v>
+      </c>
+      <c r="B189" t="n">
+        <v>9572</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>2175</v>
+      </c>
+      <c r="B190" t="n">
+        <v>9581</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>2162</v>
+      </c>
+      <c r="B191" t="n">
+        <v>9626</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>2167</v>
+      </c>
+      <c r="B192" t="n">
+        <v>9679</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>2176</v>
+      </c>
+      <c r="B193" t="n">
+        <v>9776</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>2152</v>
+      </c>
+      <c r="B194" t="n">
+        <v>9880</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>2143</v>
+      </c>
+      <c r="B195" t="n">
+        <v>10095</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>2143</v>
+      </c>
+      <c r="B196" t="n">
+        <v>12689</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>2151</v>
+      </c>
+      <c r="B197" t="n">
+        <v>12709</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>2143</v>
+      </c>
+      <c r="B198" t="n">
+        <v>18633</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>2134</v>
+      </c>
+      <c r="B199" t="n">
+        <v>18782</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>2135</v>
+      </c>
+      <c r="B200" t="n">
+        <v>18942</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>2135</v>
+      </c>
+      <c r="B201" t="n">
+        <v>18995</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>2144</v>
+      </c>
+      <c r="B202" t="n">
+        <v>19215</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>2143</v>
+      </c>
+      <c r="B203" t="n">
+        <v>19415</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>2094</v>
+      </c>
+      <c r="B204" t="n">
+        <v>19507</v>
       </c>
     </row>
   </sheetData>
